--- a/natmiOut/OldD7/LR-pairs_lrc2p/Hgf-Sdc2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Hgf-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Sdc2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>14.6418778266445</v>
+        <v>0.1088396666666667</v>
       </c>
       <c r="H2">
-        <v>14.6418778266445</v>
+        <v>0.326519</v>
       </c>
       <c r="I2">
-        <v>0.3979075416502982</v>
+        <v>0.002750770615347974</v>
       </c>
       <c r="J2">
-        <v>0.3979075416502982</v>
+        <v>0.002750770615347974</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.16990234270946</v>
+        <v>3.057109</v>
       </c>
       <c r="N2">
-        <v>2.16990234270946</v>
+        <v>9.171327</v>
       </c>
       <c r="O2">
-        <v>0.01962055177520146</v>
+        <v>0.02694952608666365</v>
       </c>
       <c r="P2">
-        <v>0.01962055177520146</v>
+        <v>0.02694952608666365</v>
       </c>
       <c r="Q2">
-        <v>31.7714449977016</v>
+        <v>0.3327347245236667</v>
       </c>
       <c r="R2">
-        <v>31.7714449977016</v>
+        <v>2.994612520713</v>
       </c>
       <c r="S2">
-        <v>0.007807165522692809</v>
+        <v>7.413196445674804E-05</v>
       </c>
       <c r="T2">
-        <v>0.007807165522692809</v>
+        <v>7.413196445674805E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>14.6418778266445</v>
+        <v>0.1088396666666667</v>
       </c>
       <c r="H3">
-        <v>14.6418778266445</v>
+        <v>0.326519</v>
       </c>
       <c r="I3">
-        <v>0.3979075416502982</v>
+        <v>0.002750770615347974</v>
       </c>
       <c r="J3">
-        <v>0.3979075416502982</v>
+        <v>0.002750770615347974</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>88.76509624945309</v>
+        <v>89.02755999999999</v>
       </c>
       <c r="N3">
-        <v>88.76509624945309</v>
+        <v>267.08268</v>
       </c>
       <c r="O3">
-        <v>0.8026260594836044</v>
+        <v>0.7848102735793893</v>
       </c>
       <c r="P3">
-        <v>0.8026260594836044</v>
+        <v>0.7848102735793893</v>
       </c>
       <c r="Q3">
-        <v>1299.687694554832</v>
+        <v>9.689729954546666</v>
       </c>
       <c r="R3">
-        <v>1299.687694554832</v>
+        <v>87.20756959092</v>
       </c>
       <c r="S3">
-        <v>0.3193709621935871</v>
+        <v>0.002158833039185388</v>
       </c>
       <c r="T3">
-        <v>0.3193709621935871</v>
+        <v>0.002158833039185389</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>14.6418778266445</v>
+        <v>0.1088396666666667</v>
       </c>
       <c r="H4">
-        <v>14.6418778266445</v>
+        <v>0.326519</v>
       </c>
       <c r="I4">
-        <v>0.3979075416502982</v>
+        <v>0.002750770615347974</v>
       </c>
       <c r="J4">
-        <v>0.3979075416502982</v>
+        <v>0.002750770615347974</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>19.6583408597897</v>
+        <v>0.184005</v>
       </c>
       <c r="N4">
-        <v>19.6583408597897</v>
+        <v>0.5520149999999999</v>
       </c>
       <c r="O4">
-        <v>0.177753388741194</v>
+        <v>0.0016220709001794</v>
       </c>
       <c r="P4">
-        <v>0.177753388741194</v>
+        <v>0.0016220709001794</v>
       </c>
       <c r="Q4">
-        <v>287.8350251435744</v>
+        <v>0.020027042865</v>
       </c>
       <c r="R4">
-        <v>287.8350251435744</v>
+        <v>0.180243385785</v>
       </c>
       <c r="S4">
-        <v>0.07072941393401831</v>
+        <v>4.461944968224529E-06</v>
       </c>
       <c r="T4">
-        <v>0.07072941393401831</v>
+        <v>4.461944968224529E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>21.7291416929397</v>
+        <v>0.1088396666666667</v>
       </c>
       <c r="H5">
-        <v>21.7291416929397</v>
+        <v>0.326519</v>
       </c>
       <c r="I5">
-        <v>0.5905109614748162</v>
+        <v>0.002750770615347974</v>
       </c>
       <c r="J5">
-        <v>0.5905109614748162</v>
+        <v>0.002750770615347974</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.16990234270946</v>
+        <v>21.16964733333333</v>
       </c>
       <c r="N5">
-        <v>2.16990234270946</v>
+        <v>63.508942</v>
       </c>
       <c r="O5">
-        <v>0.01962055177520146</v>
+        <v>0.1866181294337677</v>
       </c>
       <c r="P5">
-        <v>0.01962055177520146</v>
+        <v>0.1866181294337677</v>
       </c>
       <c r="Q5">
-        <v>47.15011546457566</v>
+        <v>2.304097359210889</v>
       </c>
       <c r="R5">
-        <v>47.15011546457566</v>
+        <v>20.736876232898</v>
       </c>
       <c r="S5">
-        <v>0.01158615089344063</v>
+        <v>0.000513343666737613</v>
       </c>
       <c r="T5">
-        <v>0.01158615089344063</v>
+        <v>0.000513343666737613</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>21.7291416929397</v>
+        <v>15.07419333333333</v>
       </c>
       <c r="H6">
-        <v>21.7291416929397</v>
+        <v>45.22258</v>
       </c>
       <c r="I6">
-        <v>0.5905109614748162</v>
+        <v>0.3809791902285103</v>
       </c>
       <c r="J6">
-        <v>0.5905109614748162</v>
+        <v>0.3809791902285103</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>88.76509624945309</v>
+        <v>3.057109</v>
       </c>
       <c r="N6">
-        <v>88.76509624945309</v>
+        <v>9.171327</v>
       </c>
       <c r="O6">
-        <v>0.8026260594836044</v>
+        <v>0.02694952608666365</v>
       </c>
       <c r="P6">
-        <v>0.8026260594836044</v>
+        <v>0.02694952608666365</v>
       </c>
       <c r="Q6">
-        <v>1928.789353791796</v>
+        <v>46.08345210707333</v>
       </c>
       <c r="R6">
-        <v>1928.789353791796</v>
+        <v>414.75106896366</v>
       </c>
       <c r="S6">
-        <v>0.4739594860904063</v>
+        <v>0.01026720862553923</v>
       </c>
       <c r="T6">
-        <v>0.4739594860904063</v>
+        <v>0.01026720862553923</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,185 +832,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>21.7291416929397</v>
+        <v>15.07419333333333</v>
       </c>
       <c r="H7">
-        <v>21.7291416929397</v>
+        <v>45.22258</v>
       </c>
       <c r="I7">
-        <v>0.5905109614748162</v>
+        <v>0.3809791902285103</v>
       </c>
       <c r="J7">
-        <v>0.5905109614748162</v>
+        <v>0.3809791902285103</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.6583408597897</v>
+        <v>89.02755999999999</v>
       </c>
       <c r="N7">
-        <v>19.6583408597897</v>
+        <v>267.08268</v>
       </c>
       <c r="O7">
-        <v>0.177753388741194</v>
+        <v>0.7848102735793893</v>
       </c>
       <c r="P7">
-        <v>0.177753388741194</v>
+        <v>0.7848102735793893</v>
       </c>
       <c r="Q7">
-        <v>427.1588739904764</v>
+        <v>1342.018651434933</v>
       </c>
       <c r="R7">
-        <v>427.1588739904764</v>
+        <v>12078.1678629144</v>
       </c>
       <c r="S7">
-        <v>0.1049653244909693</v>
+        <v>0.2989963825112914</v>
       </c>
       <c r="T7">
-        <v>0.1049653244909693</v>
+        <v>0.2989963825112914</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.426166494830532</v>
+        <v>15.07419333333333</v>
       </c>
       <c r="H8">
-        <v>0.426166494830532</v>
+        <v>45.22258</v>
       </c>
       <c r="I8">
-        <v>0.0115814968748857</v>
+        <v>0.3809791902285103</v>
       </c>
       <c r="J8">
-        <v>0.0115814968748857</v>
+        <v>0.3809791902285103</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>2.16990234270946</v>
+        <v>0.184005</v>
       </c>
       <c r="N8">
-        <v>2.16990234270946</v>
+        <v>0.5520149999999999</v>
       </c>
       <c r="O8">
-        <v>0.01962055177520146</v>
+        <v>0.0016220709001794</v>
       </c>
       <c r="P8">
-        <v>0.01962055177520146</v>
+        <v>0.0016220709001794</v>
       </c>
       <c r="Q8">
-        <v>0.9247396755170503</v>
+        <v>2.773726944299999</v>
       </c>
       <c r="R8">
-        <v>0.9247396755170503</v>
+        <v>24.9635424987</v>
       </c>
       <c r="S8">
-        <v>0.0002272353590680288</v>
+        <v>0.0006179752580435786</v>
       </c>
       <c r="T8">
-        <v>0.0002272353590680288</v>
+        <v>0.0006179752580435785</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.426166494830532</v>
+        <v>15.07419333333333</v>
       </c>
       <c r="H9">
-        <v>0.426166494830532</v>
+        <v>45.22258</v>
       </c>
       <c r="I9">
-        <v>0.0115814968748857</v>
+        <v>0.3809791902285103</v>
       </c>
       <c r="J9">
-        <v>0.0115814968748857</v>
+        <v>0.3809791902285103</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>88.76509624945309</v>
+        <v>21.16964733333333</v>
       </c>
       <c r="N9">
-        <v>88.76509624945309</v>
+        <v>63.508942</v>
       </c>
       <c r="O9">
-        <v>0.8026260594836044</v>
+        <v>0.1866181294337677</v>
       </c>
       <c r="P9">
-        <v>0.8026260594836044</v>
+        <v>0.1866181294337677</v>
       </c>
       <c r="Q9">
-        <v>37.82870993192422</v>
+        <v>319.1153567011511</v>
       </c>
       <c r="R9">
-        <v>37.82870993192422</v>
+        <v>2872.03821031036</v>
       </c>
       <c r="S9">
-        <v>0.009295611199611189</v>
+        <v>0.07109762383363616</v>
       </c>
       <c r="T9">
-        <v>0.009295611199611189</v>
+        <v>0.07109762383363616</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>23.69325166666667</v>
+      </c>
+      <c r="H10">
+        <v>71.07975500000001</v>
+      </c>
+      <c r="I10">
+        <v>0.5988138558556568</v>
+      </c>
+      <c r="J10">
+        <v>0.5988138558556569</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.057109</v>
+      </c>
+      <c r="N10">
+        <v>9.171327</v>
+      </c>
+      <c r="O10">
+        <v>0.02694952608666365</v>
+      </c>
+      <c r="P10">
+        <v>0.02694952608666365</v>
+      </c>
+      <c r="Q10">
+        <v>72.43285290943167</v>
+      </c>
+      <c r="R10">
+        <v>651.895676184885</v>
+      </c>
+      <c r="S10">
+        <v>0.01613774962943767</v>
+      </c>
+      <c r="T10">
+        <v>0.01613774962943767</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>23.69325166666667</v>
+      </c>
+      <c r="H11">
+        <v>71.07975500000001</v>
+      </c>
+      <c r="I11">
+        <v>0.5988138558556568</v>
+      </c>
+      <c r="J11">
+        <v>0.5988138558556569</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>89.02755999999999</v>
+      </c>
+      <c r="N11">
+        <v>267.08268</v>
+      </c>
+      <c r="O11">
+        <v>0.7848102735793893</v>
+      </c>
+      <c r="P11">
+        <v>0.7848102735793893</v>
+      </c>
+      <c r="Q11">
+        <v>2109.352384349267</v>
+      </c>
+      <c r="R11">
+        <v>18984.1714591434</v>
+      </c>
+      <c r="S11">
+        <v>0.469955266037207</v>
+      </c>
+      <c r="T11">
+        <v>0.4699552660372071</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>23.69325166666667</v>
+      </c>
+      <c r="H12">
+        <v>71.07975500000001</v>
+      </c>
+      <c r="I12">
+        <v>0.5988138558556568</v>
+      </c>
+      <c r="J12">
+        <v>0.5988138558556569</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.184005</v>
+      </c>
+      <c r="N12">
+        <v>0.5520149999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.0016220709001794</v>
+      </c>
+      <c r="P12">
+        <v>0.0016220709001794</v>
+      </c>
+      <c r="Q12">
+        <v>4.359676772925</v>
+      </c>
+      <c r="R12">
+        <v>39.237090956325</v>
+      </c>
+      <c r="S12">
+        <v>0.0009713185302076826</v>
+      </c>
+      <c r="T12">
+        <v>0.0009713185302076826</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>23.69325166666667</v>
+      </c>
+      <c r="H13">
+        <v>71.07975500000001</v>
+      </c>
+      <c r="I13">
+        <v>0.5988138558556568</v>
+      </c>
+      <c r="J13">
+        <v>0.5988138558556569</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>21.16964733333333</v>
+      </c>
+      <c r="N13">
+        <v>63.508942</v>
+      </c>
+      <c r="O13">
+        <v>0.1866181294337677</v>
+      </c>
+      <c r="P13">
+        <v>0.1866181294337677</v>
+      </c>
+      <c r="Q13">
+        <v>501.5777819632456</v>
+      </c>
+      <c r="R13">
+        <v>4514.20003766921</v>
+      </c>
+      <c r="S13">
+        <v>0.1117495216588045</v>
+      </c>
+      <c r="T13">
+        <v>0.1117495216588045</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.6906883333333335</v>
+      </c>
+      <c r="H14">
+        <v>2.072065</v>
+      </c>
+      <c r="I14">
+        <v>0.01745618330048481</v>
+      </c>
+      <c r="J14">
+        <v>0.01745618330048481</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.057109</v>
+      </c>
+      <c r="N14">
+        <v>9.171327</v>
+      </c>
+      <c r="O14">
+        <v>0.02694952608666365</v>
+      </c>
+      <c r="P14">
+        <v>0.02694952608666365</v>
+      </c>
+      <c r="Q14">
+        <v>2.111509520028334</v>
+      </c>
+      <c r="R14">
+        <v>19.003585680255</v>
+      </c>
+      <c r="S14">
+        <v>0.0004704358672299978</v>
+      </c>
+      <c r="T14">
+        <v>0.0004704358672299978</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.6906883333333335</v>
+      </c>
+      <c r="H15">
+        <v>2.072065</v>
+      </c>
+      <c r="I15">
+        <v>0.01745618330048481</v>
+      </c>
+      <c r="J15">
+        <v>0.01745618330048481</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>89.02755999999999</v>
+      </c>
+      <c r="N15">
+        <v>267.08268</v>
+      </c>
+      <c r="O15">
+        <v>0.7848102735793893</v>
+      </c>
+      <c r="P15">
+        <v>0.7848102735793893</v>
+      </c>
+      <c r="Q15">
+        <v>61.49029703713334</v>
+      </c>
+      <c r="R15">
+        <v>553.4126733342</v>
+      </c>
+      <c r="S15">
+        <v>0.01369979199170545</v>
+      </c>
+      <c r="T15">
+        <v>0.01369979199170545</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.426166494830532</v>
-      </c>
-      <c r="H10">
-        <v>0.426166494830532</v>
-      </c>
-      <c r="I10">
-        <v>0.0115814968748857</v>
-      </c>
-      <c r="J10">
-        <v>0.0115814968748857</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>19.6583408597897</v>
-      </c>
-      <c r="N10">
-        <v>19.6583408597897</v>
-      </c>
-      <c r="O10">
-        <v>0.177753388741194</v>
-      </c>
-      <c r="P10">
-        <v>0.177753388741194</v>
-      </c>
-      <c r="Q10">
-        <v>8.377726218400403</v>
-      </c>
-      <c r="R10">
-        <v>8.377726218400403</v>
-      </c>
-      <c r="S10">
-        <v>0.002058650316206482</v>
-      </c>
-      <c r="T10">
-        <v>0.002058650316206482</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.6906883333333335</v>
+      </c>
+      <c r="H16">
+        <v>2.072065</v>
+      </c>
+      <c r="I16">
+        <v>0.01745618330048481</v>
+      </c>
+      <c r="J16">
+        <v>0.01745618330048481</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.184005</v>
+      </c>
+      <c r="N16">
+        <v>0.5520149999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.0016220709001794</v>
+      </c>
+      <c r="P16">
+        <v>0.0016220709001794</v>
+      </c>
+      <c r="Q16">
+        <v>0.127090106775</v>
+      </c>
+      <c r="R16">
+        <v>1.143810960975</v>
+      </c>
+      <c r="S16">
+        <v>2.8315166959914E-05</v>
+      </c>
+      <c r="T16">
+        <v>2.8315166959914E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.6906883333333335</v>
+      </c>
+      <c r="H17">
+        <v>2.072065</v>
+      </c>
+      <c r="I17">
+        <v>0.01745618330048481</v>
+      </c>
+      <c r="J17">
+        <v>0.01745618330048481</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>21.16964733333333</v>
+      </c>
+      <c r="N17">
+        <v>63.508942</v>
+      </c>
+      <c r="O17">
+        <v>0.1866181294337677</v>
+      </c>
+      <c r="P17">
+        <v>0.1866181294337677</v>
+      </c>
+      <c r="Q17">
+        <v>14.62162843391445</v>
+      </c>
+      <c r="R17">
+        <v>131.59465590523</v>
+      </c>
+      <c r="S17">
+        <v>0.003257640274589449</v>
+      </c>
+      <c r="T17">
+        <v>0.003257640274589449</v>
       </c>
     </row>
   </sheetData>
